--- a/report_ca_nhan/CẦN THƠ/NV-15 Trương Lâm Khanh 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-15 Trương Lâm Khanh 7-2024.xlsx
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1821428.571428571</v>
+        <v>2035714.285714285</v>
       </c>
     </row>
     <row r="5">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1214285.714285714</v>
+        <v>1357142.857142857</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1821428.571428571</v>
+        <v>2035714.285714285</v>
       </c>
     </row>
     <row r="21">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1123571.428571429</v>
+        <v>-839285.7142857146</v>
       </c>
     </row>
     <row r="29">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1214285.714285714</v>
+        <v>1357142.857142857</v>
       </c>
     </row>
     <row r="30">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1821428.571428571</v>
+        <v>2035714.285714285</v>
       </c>
     </row>
     <row r="31">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1912142.857142857</v>
+        <v>2553571.428571428</v>
       </c>
     </row>
   </sheetData>
